--- a/team_specific_matrix/St. Mary's (MD)_B.xlsx
+++ b/team_specific_matrix/St. Mary's (MD)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.4782608695652174</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
   </sheetData>
